--- a/Data/Processed/Angiosperms/missing_powo_ipni/Cunoniaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Cunoniaceae.xlsx
@@ -1862,7 +1862,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 30(1, Beibl. 67): 29. 1901 [12 Mar 1901] </t>
+          <t>Bot. Jahrb. Syst. 30(1, Beibl. 67): 29. 1901 [12 Mar 1901]</t>
         </is>
       </c>
       <c r="J27" t="b">
